--- a/documentation/SCRUM.xlsx
+++ b/documentation/SCRUM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gizzi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marconatale/Desktop/Università/Magistrale/CryptoBallot/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FB3CA52-6826-4E4F-8151-D3B405068728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB0A2B1-DCFC-324F-A8AD-F19964ACAA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLANK Gantt Chart &amp; Burndown" sheetId="2" r:id="rId1"/>
@@ -728,7 +728,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -739,18 +739,21 @@
       <sz val="24"/>
       <color rgb="FF345D7E"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF558BB7"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -761,93 +764,110 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF578278"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF578278"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF7B3C16"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF7C5F1D"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF716767"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2306,39 +2326,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2357,29 +2368,38 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -2524,7 +2544,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -2607,7 +2627,7 @@
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-IT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3899,7 +3919,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1490057082"/>
@@ -3975,7 +3995,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148595908"/>
@@ -4066,7 +4086,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1256924719"/>
@@ -4094,7 +4114,7 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4509,23 +4529,23 @@
   <dimension ref="B1:BV1051"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH92" sqref="AH92"/>
+      <selection activeCell="AP31" sqref="AP31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="73" width="3" customWidth="1"/>
-    <col min="74" max="74" width="10.625" customWidth="1"/>
+    <col min="74" max="74" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:72" ht="36" customHeight="1">
+    <row r="1" spans="2:72" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4597,7 +4617,7 @@
       <c r="BP1" s="2"/>
       <c r="BQ1" s="77"/>
     </row>
-    <row r="2" spans="2:72" ht="36" customHeight="1">
+    <row r="2" spans="2:72" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4612,7 +4632,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="2:72" ht="18" customHeight="1">
+    <row r="3" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4622,7 +4642,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="155" t="s">
+      <c r="K3" s="172" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -4689,7 +4709,7 @@
       <c r="BS3" s="8"/>
       <c r="BT3" s="9"/>
     </row>
-    <row r="4" spans="2:72" ht="18" customHeight="1">
+    <row r="4" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -4764,7 +4784,7 @@
       <c r="BS4" s="12"/>
       <c r="BT4" s="14"/>
     </row>
-    <row r="5" spans="2:72" ht="18" customHeight="1">
+    <row r="5" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4839,7 +4859,7 @@
       <c r="BS5" s="12"/>
       <c r="BT5" s="14"/>
     </row>
-    <row r="6" spans="2:72" ht="18" customHeight="1">
+    <row r="6" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4914,28 +4934,28 @@
       <c r="BS6" s="12"/>
       <c r="BT6" s="14"/>
     </row>
-    <row r="7" spans="2:72" ht="18" customHeight="1">
-      <c r="B7" s="156" t="s">
+    <row r="7" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="157" t="s">
+      <c r="C7" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="159" t="s">
+      <c r="E7" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="174"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="160" t="s">
+      <c r="F7" s="181"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="161" t="s">
+      <c r="I7" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="162" t="s">
+      <c r="J7" s="161" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="163" t="s">
@@ -4944,95 +4964,95 @@
       <c r="L7" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="165" t="s">
+      <c r="M7" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="166" t="s">
+      <c r="N7" s="157"/>
+      <c r="O7" s="157"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="176"/>
-      <c r="T7" s="176"/>
-      <c r="U7" s="176"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="166" t="s">
+      <c r="S7" s="157"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="157"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="176"/>
-      <c r="Y7" s="176"/>
-      <c r="Z7" s="176"/>
-      <c r="AA7" s="178"/>
-      <c r="AB7" s="167" t="s">
+      <c r="X7" s="157"/>
+      <c r="Y7" s="157"/>
+      <c r="Z7" s="157"/>
+      <c r="AA7" s="160"/>
+      <c r="AB7" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="AC7" s="176"/>
-      <c r="AD7" s="176"/>
-      <c r="AE7" s="176"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="168" t="s">
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="157"/>
+      <c r="AE7" s="157"/>
+      <c r="AF7" s="158"/>
+      <c r="AG7" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="AH7" s="176"/>
-      <c r="AI7" s="176"/>
-      <c r="AJ7" s="176"/>
-      <c r="AK7" s="177"/>
-      <c r="AL7" s="168" t="s">
+      <c r="AH7" s="157"/>
+      <c r="AI7" s="157"/>
+      <c r="AJ7" s="157"/>
+      <c r="AK7" s="158"/>
+      <c r="AL7" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="AM7" s="176"/>
-      <c r="AN7" s="176"/>
-      <c r="AO7" s="176"/>
-      <c r="AP7" s="178"/>
-      <c r="AQ7" s="169" t="s">
+      <c r="AM7" s="157"/>
+      <c r="AN7" s="157"/>
+      <c r="AO7" s="157"/>
+      <c r="AP7" s="160"/>
+      <c r="AQ7" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="AR7" s="176"/>
-      <c r="AS7" s="176"/>
-      <c r="AT7" s="176"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="170" t="s">
+      <c r="AR7" s="157"/>
+      <c r="AS7" s="157"/>
+      <c r="AT7" s="157"/>
+      <c r="AU7" s="158"/>
+      <c r="AV7" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="AW7" s="176"/>
-      <c r="AX7" s="176"/>
-      <c r="AY7" s="176"/>
-      <c r="AZ7" s="177"/>
-      <c r="BA7" s="170" t="s">
+      <c r="AW7" s="157"/>
+      <c r="AX7" s="157"/>
+      <c r="AY7" s="157"/>
+      <c r="AZ7" s="158"/>
+      <c r="BA7" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="BB7" s="176"/>
-      <c r="BC7" s="176"/>
-      <c r="BD7" s="176"/>
-      <c r="BE7" s="178"/>
-      <c r="BF7" s="171" t="s">
+      <c r="BB7" s="157"/>
+      <c r="BC7" s="157"/>
+      <c r="BD7" s="157"/>
+      <c r="BE7" s="160"/>
+      <c r="BF7" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="BG7" s="176"/>
-      <c r="BH7" s="176"/>
-      <c r="BI7" s="176"/>
-      <c r="BJ7" s="177"/>
-      <c r="BK7" s="154" t="s">
+      <c r="BG7" s="157"/>
+      <c r="BH7" s="157"/>
+      <c r="BI7" s="157"/>
+      <c r="BJ7" s="158"/>
+      <c r="BK7" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="BL7" s="176"/>
-      <c r="BM7" s="176"/>
-      <c r="BN7" s="176"/>
-      <c r="BO7" s="177"/>
-      <c r="BP7" s="154" t="s">
+      <c r="BL7" s="157"/>
+      <c r="BM7" s="157"/>
+      <c r="BN7" s="157"/>
+      <c r="BO7" s="158"/>
+      <c r="BP7" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="BQ7" s="176"/>
-      <c r="BR7" s="176"/>
-      <c r="BS7" s="176"/>
-      <c r="BT7" s="178"/>
+      <c r="BQ7" s="157"/>
+      <c r="BR7" s="157"/>
+      <c r="BS7" s="157"/>
+      <c r="BT7" s="160"/>
     </row>
-    <row r="8" spans="2:72" ht="18" customHeight="1">
-      <c r="B8" s="179"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="181"/>
+    <row r="8" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="175"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="179"/>
       <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
@@ -5042,11 +5062,11 @@
       <c r="G8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="182"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="185"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="165"/>
       <c r="M8" s="22" t="s">
         <v>31</v>
       </c>
@@ -5228,7 +5248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:72" ht="18" customHeight="1">
+    <row r="9" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="34">
         <v>1</v>
       </c>
@@ -5319,7 +5339,7 @@
       <c r="BS9" s="44"/>
       <c r="BT9" s="45"/>
     </row>
-    <row r="10" spans="2:72" ht="18" customHeight="1">
+    <row r="10" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="46">
         <v>1.1000000000000001</v>
       </c>
@@ -5417,7 +5437,7 @@
       <c r="BS10" s="56"/>
       <c r="BT10" s="58"/>
     </row>
-    <row r="11" spans="2:72" ht="18" customHeight="1">
+    <row r="11" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="46">
         <v>1.2</v>
       </c>
@@ -5515,7 +5535,7 @@
       <c r="BS11" s="56"/>
       <c r="BT11" s="58"/>
     </row>
-    <row r="12" spans="2:72" ht="18" customHeight="1">
+    <row r="12" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="46">
         <v>2</v>
       </c>
@@ -5606,7 +5626,7 @@
       <c r="BS12" s="44"/>
       <c r="BT12" s="45"/>
     </row>
-    <row r="13" spans="2:72" ht="18" customHeight="1">
+    <row r="13" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="46">
         <v>2.1</v>
       </c>
@@ -5704,7 +5724,7 @@
       <c r="BS13" s="56"/>
       <c r="BT13" s="58"/>
     </row>
-    <row r="14" spans="2:72" ht="15.75" customHeight="1">
+    <row r="14" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="46">
         <v>3</v>
       </c>
@@ -5795,7 +5815,7 @@
       <c r="BS14" s="44"/>
       <c r="BT14" s="45"/>
     </row>
-    <row r="15" spans="2:72" ht="15.75" customHeight="1">
+    <row r="15" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="46">
         <v>3.1</v>
       </c>
@@ -5893,7 +5913,7 @@
       <c r="BS15" s="56"/>
       <c r="BT15" s="58"/>
     </row>
-    <row r="16" spans="2:72" ht="15.75" customHeight="1">
+    <row r="16" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="46">
         <v>3.2</v>
       </c>
@@ -5991,7 +6011,7 @@
       <c r="BS16" s="56"/>
       <c r="BT16" s="58"/>
     </row>
-    <row r="17" spans="2:72" ht="15.75" customHeight="1">
+    <row r="17" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="46">
         <v>4</v>
       </c>
@@ -6084,7 +6104,7 @@
       <c r="BS17" s="44"/>
       <c r="BT17" s="45"/>
     </row>
-    <row r="18" spans="2:72" ht="15.6" customHeight="1">
+    <row r="18" spans="2:72" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="46">
         <v>4.0999999999999996</v>
       </c>
@@ -6182,7 +6202,7 @@
       <c r="BS18" s="56"/>
       <c r="BT18" s="58"/>
     </row>
-    <row r="19" spans="2:72" ht="15.6" customHeight="1">
+    <row r="19" spans="2:72" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="46">
         <v>5</v>
       </c>
@@ -6273,7 +6293,7 @@
       <c r="BS19" s="127"/>
       <c r="BT19" s="129"/>
     </row>
-    <row r="20" spans="2:72" ht="15.75" customHeight="1">
+    <row r="20" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="46">
         <v>5.0999999999999996</v>
       </c>
@@ -6371,7 +6391,7 @@
       <c r="BS20" s="56"/>
       <c r="BT20" s="58"/>
     </row>
-    <row r="21" spans="2:72" ht="15.75" customHeight="1">
+    <row r="21" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="46">
         <v>5.2</v>
       </c>
@@ -6469,7 +6489,7 @@
       <c r="BS21" s="56"/>
       <c r="BT21" s="58"/>
     </row>
-    <row r="22" spans="2:72" ht="15.75" customHeight="1">
+    <row r="22" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="46">
         <v>5.3</v>
       </c>
@@ -6567,7 +6587,7 @@
       <c r="BS22" s="56"/>
       <c r="BT22" s="58"/>
     </row>
-    <row r="23" spans="2:72" ht="15.75" customHeight="1">
+    <row r="23" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="46">
         <v>5.9999999999999902</v>
       </c>
@@ -6660,7 +6680,7 @@
       <c r="BS23" s="44"/>
       <c r="BT23" s="45"/>
     </row>
-    <row r="24" spans="2:72" ht="15.6" customHeight="1">
+    <row r="24" spans="2:72" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="46">
         <v>6.0999999999999899</v>
       </c>
@@ -6758,7 +6778,7 @@
       <c r="BS24" s="56"/>
       <c r="BT24" s="58"/>
     </row>
-    <row r="25" spans="2:72" ht="15.75" customHeight="1">
+    <row r="25" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="46">
         <v>6.9999999999999902</v>
       </c>
@@ -6851,7 +6871,7 @@
       <c r="BS25" s="44"/>
       <c r="BT25" s="45"/>
     </row>
-    <row r="26" spans="2:72" ht="15.6" customHeight="1">
+    <row r="26" spans="2:72" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="46">
         <v>7.0999999999999899</v>
       </c>
@@ -6895,8 +6915,8 @@
       <c r="Q26" s="56"/>
       <c r="R26" s="57"/>
       <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="57"/>
       <c r="V26" s="57"/>
       <c r="W26" s="56"/>
       <c r="X26" s="56"/>
@@ -6949,7 +6969,7 @@
       <c r="BS26" s="56"/>
       <c r="BT26" s="58"/>
     </row>
-    <row r="27" spans="2:72" ht="15.75" customHeight="1">
+    <row r="27" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="46">
         <v>7.1999999999999904</v>
       </c>
@@ -6993,9 +7013,9 @@
       <c r="Q27" s="56"/>
       <c r="R27" s="57"/>
       <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
+      <c r="T27" s="78"/>
       <c r="U27" s="57"/>
-      <c r="V27" s="78"/>
+      <c r="V27" s="57"/>
       <c r="W27" s="56"/>
       <c r="X27" s="56"/>
       <c r="Y27" s="56"/>
@@ -7047,7 +7067,7 @@
       <c r="BS27" s="56"/>
       <c r="BT27" s="58"/>
     </row>
-    <row r="28" spans="2:72" ht="15.75" customHeight="1">
+    <row r="28" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="46">
         <v>7.2999999999999901</v>
       </c>
@@ -7145,7 +7165,7 @@
       <c r="BS28" s="145"/>
       <c r="BT28" s="146"/>
     </row>
-    <row r="29" spans="2:72" ht="15.75" customHeight="1">
+    <row r="29" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="46">
         <v>7.9999999999999902</v>
       </c>
@@ -7238,7 +7258,7 @@
       <c r="BS29" s="44"/>
       <c r="BT29" s="45"/>
     </row>
-    <row r="30" spans="2:72" ht="15.6" customHeight="1">
+    <row r="30" spans="2:72" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="46" t="s">
         <v>56</v>
       </c>
@@ -7336,7 +7356,7 @@
       <c r="BS30" s="56"/>
       <c r="BT30" s="58"/>
     </row>
-    <row r="31" spans="2:72" ht="15.75" customHeight="1">
+    <row r="31" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="46">
         <v>8.1999999999999993</v>
       </c>
@@ -7434,7 +7454,7 @@
       <c r="BS31" s="56"/>
       <c r="BT31" s="58"/>
     </row>
-    <row r="32" spans="2:72" ht="15.75" customHeight="1">
+    <row r="32" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="46" t="s">
         <v>59</v>
       </c>
@@ -7527,7 +7547,7 @@
       <c r="BS32" s="44"/>
       <c r="BT32" s="45"/>
     </row>
-    <row r="33" spans="2:72" ht="15.6" customHeight="1">
+    <row r="33" spans="2:72" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="46" t="s">
         <v>61</v>
       </c>
@@ -7625,7 +7645,7 @@
       <c r="BS33" s="56"/>
       <c r="BT33" s="58"/>
     </row>
-    <row r="34" spans="2:72" ht="15.75" customHeight="1">
+    <row r="34" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="46" t="s">
         <v>63</v>
       </c>
@@ -7723,7 +7743,7 @@
       <c r="BS34" s="56"/>
       <c r="BT34" s="58"/>
     </row>
-    <row r="35" spans="2:72" ht="15.6" customHeight="1">
+    <row r="35" spans="2:72" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="46" t="s">
         <v>65</v>
       </c>
@@ -7821,7 +7841,7 @@
       <c r="BS35" s="56"/>
       <c r="BT35" s="58"/>
     </row>
-    <row r="36" spans="2:72" ht="15.75" customHeight="1">
+    <row r="36" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="46" t="s">
         <v>67</v>
       </c>
@@ -7919,7 +7939,7 @@
       <c r="BS36" s="56"/>
       <c r="BT36" s="58"/>
     </row>
-    <row r="37" spans="2:72" ht="15.75" customHeight="1">
+    <row r="37" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="46" t="s">
         <v>69</v>
       </c>
@@ -8017,7 +8037,7 @@
       <c r="BS37" s="56"/>
       <c r="BT37" s="58"/>
     </row>
-    <row r="38" spans="2:72" ht="15.75" customHeight="1">
+    <row r="38" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="46" t="s">
         <v>71</v>
       </c>
@@ -8115,7 +8135,7 @@
       <c r="BS38" s="56"/>
       <c r="BT38" s="58"/>
     </row>
-    <row r="39" spans="2:72" ht="15.75" customHeight="1">
+    <row r="39" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="46" t="s">
         <v>73</v>
       </c>
@@ -8206,7 +8226,7 @@
       <c r="BS39" s="127"/>
       <c r="BT39" s="129"/>
     </row>
-    <row r="40" spans="2:72" ht="15.75" customHeight="1">
+    <row r="40" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="46" t="s">
         <v>75</v>
       </c>
@@ -8304,7 +8324,7 @@
       <c r="BS40" s="56"/>
       <c r="BT40" s="58"/>
     </row>
-    <row r="41" spans="2:72" ht="15.75" customHeight="1">
+    <row r="41" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="46" t="s">
         <v>76</v>
       </c>
@@ -8396,7 +8416,7 @@
       <c r="BS41" s="127"/>
       <c r="BT41" s="129"/>
     </row>
-    <row r="42" spans="2:72" ht="15.75" customHeight="1">
+    <row r="42" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="46" t="s">
         <v>78</v>
       </c>
@@ -8494,7 +8514,7 @@
       <c r="BS42" s="145"/>
       <c r="BT42" s="146"/>
     </row>
-    <row r="43" spans="2:72" ht="15.6" customHeight="1">
+    <row r="43" spans="2:72" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="46" t="s">
         <v>80</v>
       </c>
@@ -8592,7 +8612,7 @@
       <c r="BS43" s="56"/>
       <c r="BT43" s="58"/>
     </row>
-    <row r="44" spans="2:72" ht="15.75" customHeight="1">
+    <row r="44" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="46" t="s">
         <v>82</v>
       </c>
@@ -8683,7 +8703,7 @@
       <c r="BS44" s="44"/>
       <c r="BT44" s="45"/>
     </row>
-    <row r="45" spans="2:72" ht="15.6" customHeight="1">
+    <row r="45" spans="2:72" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="46" t="s">
         <v>84</v>
       </c>
@@ -8700,7 +8720,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="50">
-        <f t="shared" ref="G45:G48" si="28">E45-F45</f>
+        <f t="shared" ref="G45:G47" si="28">E45-F45</f>
         <v>0</v>
       </c>
       <c r="H45" s="51">
@@ -8781,7 +8801,7 @@
       <c r="BS45" s="56"/>
       <c r="BT45" s="58"/>
     </row>
-    <row r="46" spans="2:72" ht="15.75" customHeight="1">
+    <row r="46" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="46" t="s">
         <v>86</v>
       </c>
@@ -8879,7 +8899,7 @@
       <c r="BS46" s="56"/>
       <c r="BT46" s="58"/>
     </row>
-    <row r="47" spans="2:72" ht="15.75" customHeight="1">
+    <row r="47" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="46" t="s">
         <v>88</v>
       </c>
@@ -8977,7 +8997,7 @@
       <c r="BS47" s="56"/>
       <c r="BT47" s="58"/>
     </row>
-    <row r="48" spans="2:72" ht="15.75" customHeight="1">
+    <row r="48" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="46" t="s">
         <v>90</v>
       </c>
@@ -9070,7 +9090,7 @@
       <c r="BS48" s="127"/>
       <c r="BT48" s="129"/>
     </row>
-    <row r="49" spans="2:72" ht="15.75" customHeight="1">
+    <row r="49" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="46" t="s">
         <v>92</v>
       </c>
@@ -9168,7 +9188,7 @@
       <c r="BS49" s="56"/>
       <c r="BT49" s="58"/>
     </row>
-    <row r="50" spans="2:72" ht="15.75" customHeight="1">
+    <row r="50" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="46" t="s">
         <v>94</v>
       </c>
@@ -9266,7 +9286,7 @@
       <c r="BS50" s="56"/>
       <c r="BT50" s="58"/>
     </row>
-    <row r="51" spans="2:72" ht="15.75" customHeight="1">
+    <row r="51" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="46" t="s">
         <v>96</v>
       </c>
@@ -9359,7 +9379,7 @@
       <c r="BS51" s="127"/>
       <c r="BT51" s="129"/>
     </row>
-    <row r="52" spans="2:72" ht="15.75" customHeight="1">
+    <row r="52" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="46" t="s">
         <v>98</v>
       </c>
@@ -9457,7 +9477,7 @@
       <c r="BS52" s="56"/>
       <c r="BT52" s="58"/>
     </row>
-    <row r="53" spans="2:72" ht="15.75" customHeight="1">
+    <row r="53" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="46" t="s">
         <v>100</v>
       </c>
@@ -9555,7 +9575,7 @@
       <c r="BS53" s="56"/>
       <c r="BT53" s="58"/>
     </row>
-    <row r="54" spans="2:72" ht="15.75" customHeight="1">
+    <row r="54" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="46" t="s">
         <v>101</v>
       </c>
@@ -9648,7 +9668,7 @@
       <c r="BS54" s="127"/>
       <c r="BT54" s="129"/>
     </row>
-    <row r="55" spans="2:72" ht="15.75" customHeight="1">
+    <row r="55" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="46" t="s">
         <v>103</v>
       </c>
@@ -9678,7 +9698,7 @@
         <v>45513</v>
       </c>
       <c r="K55" s="53">
-        <f t="shared" ref="K55:K59" si="35">J55-I55+1</f>
+        <f t="shared" ref="K55:K56" si="35">J55-I55+1</f>
         <v>1</v>
       </c>
       <c r="L55" s="54">
@@ -9746,7 +9766,7 @@
       <c r="BS55" s="56"/>
       <c r="BT55" s="58"/>
     </row>
-    <row r="56" spans="2:72" ht="15.75" customHeight="1">
+    <row r="56" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="46" t="s">
         <v>105</v>
       </c>
@@ -9844,7 +9864,7 @@
       <c r="BS56" s="56"/>
       <c r="BT56" s="58"/>
     </row>
-    <row r="57" spans="2:72" ht="15.75" customHeight="1">
+    <row r="57" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="46" t="s">
         <v>107</v>
       </c>
@@ -9937,7 +9957,7 @@
       <c r="BS57" s="127"/>
       <c r="BT57" s="129"/>
     </row>
-    <row r="58" spans="2:72" ht="15.75" customHeight="1">
+    <row r="58" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="46" t="s">
         <v>109</v>
       </c>
@@ -10035,7 +10055,7 @@
       <c r="BS58" s="56"/>
       <c r="BT58" s="58"/>
     </row>
-    <row r="59" spans="2:72" ht="15.75" customHeight="1">
+    <row r="59" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="46" t="s">
         <v>111</v>
       </c>
@@ -10133,7 +10153,7 @@
       <c r="BS59" s="56"/>
       <c r="BT59" s="58"/>
     </row>
-    <row r="60" spans="2:72" ht="15.75" customHeight="1">
+    <row r="60" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="46" t="s">
         <v>112</v>
       </c>
@@ -10226,7 +10246,7 @@
       <c r="BS60" s="127"/>
       <c r="BT60" s="129"/>
     </row>
-    <row r="61" spans="2:72" ht="15.75" customHeight="1">
+    <row r="61" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="46" t="s">
         <v>114</v>
       </c>
@@ -10324,7 +10344,7 @@
       <c r="BS61" s="56"/>
       <c r="BT61" s="58"/>
     </row>
-    <row r="62" spans="2:72" ht="15.75" customHeight="1">
+    <row r="62" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="46" t="s">
         <v>115</v>
       </c>
@@ -10422,7 +10442,7 @@
       <c r="BS62" s="56"/>
       <c r="BT62" s="58"/>
     </row>
-    <row r="63" spans="2:72" ht="15.75" customHeight="1">
+    <row r="63" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="46" t="s">
         <v>117</v>
       </c>
@@ -10515,7 +10535,7 @@
       <c r="BS63" s="127"/>
       <c r="BT63" s="129"/>
     </row>
-    <row r="64" spans="2:72" ht="15.75" customHeight="1">
+    <row r="64" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="46" t="s">
         <v>119</v>
       </c>
@@ -10545,7 +10565,7 @@
         <v>45517</v>
       </c>
       <c r="K64" s="53">
-        <f t="shared" ref="K64:K65" si="41">J64-I64+1</f>
+        <f t="shared" ref="K64" si="41">J64-I64+1</f>
         <v>1</v>
       </c>
       <c r="L64" s="54">
@@ -10613,7 +10633,7 @@
       <c r="BS64" s="56"/>
       <c r="BT64" s="58"/>
     </row>
-    <row r="65" spans="2:72" ht="15.75" customHeight="1">
+    <row r="65" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="46" t="s">
         <v>121</v>
       </c>
@@ -10706,7 +10726,7 @@
       <c r="BS65" s="127"/>
       <c r="BT65" s="129"/>
     </row>
-    <row r="66" spans="2:72" ht="15.75" customHeight="1">
+    <row r="66" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="46" t="s">
         <v>123</v>
       </c>
@@ -10804,7 +10824,7 @@
       <c r="BS66" s="56"/>
       <c r="BT66" s="58"/>
     </row>
-    <row r="67" spans="2:72" ht="15.75" customHeight="1">
+    <row r="67" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="46" t="s">
         <v>125</v>
       </c>
@@ -10902,7 +10922,7 @@
       <c r="BS67" s="56"/>
       <c r="BT67" s="58"/>
     </row>
-    <row r="68" spans="2:72" ht="15.75" customHeight="1">
+    <row r="68" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="46" t="s">
         <v>126</v>
       </c>
@@ -10995,7 +11015,7 @@
       <c r="BS68" s="127"/>
       <c r="BT68" s="129"/>
     </row>
-    <row r="69" spans="2:72" ht="15.75" customHeight="1">
+    <row r="69" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="46" t="s">
         <v>128</v>
       </c>
@@ -11093,7 +11113,7 @@
       <c r="BS69" s="56"/>
       <c r="BT69" s="58"/>
     </row>
-    <row r="70" spans="2:72" ht="15.75" customHeight="1">
+    <row r="70" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="46" t="s">
         <v>129</v>
       </c>
@@ -11191,7 +11211,7 @@
       <c r="BS70" s="56"/>
       <c r="BT70" s="58"/>
     </row>
-    <row r="71" spans="2:72" ht="15.75" customHeight="1">
+    <row r="71" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="46" t="s">
         <v>130</v>
       </c>
@@ -11284,7 +11304,7 @@
       <c r="BS71" s="127"/>
       <c r="BT71" s="129"/>
     </row>
-    <row r="72" spans="2:72" ht="15.75" customHeight="1">
+    <row r="72" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="46" t="s">
         <v>128</v>
       </c>
@@ -11382,7 +11402,7 @@
       <c r="BS72" s="56"/>
       <c r="BT72" s="58"/>
     </row>
-    <row r="73" spans="2:72" ht="15.6" customHeight="1">
+    <row r="73" spans="2:72" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="46" t="s">
         <v>129</v>
       </c>
@@ -11480,7 +11500,7 @@
       <c r="BS73" s="56"/>
       <c r="BT73" s="58"/>
     </row>
-    <row r="74" spans="2:72" ht="15.75" customHeight="1">
+    <row r="74" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="46" t="s">
         <v>132</v>
       </c>
@@ -11573,7 +11593,7 @@
       <c r="BS74" s="127"/>
       <c r="BT74" s="129"/>
     </row>
-    <row r="75" spans="2:72" ht="15.75" customHeight="1">
+    <row r="75" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="46" t="s">
         <v>134</v>
       </c>
@@ -11671,7 +11691,7 @@
       <c r="BS75" s="56"/>
       <c r="BT75" s="58"/>
     </row>
-    <row r="76" spans="2:72" ht="15.75" customHeight="1">
+    <row r="76" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="46" t="s">
         <v>135</v>
       </c>
@@ -11764,7 +11784,7 @@
       <c r="BS76" s="127"/>
       <c r="BT76" s="129"/>
     </row>
-    <row r="77" spans="2:72" ht="15.75" customHeight="1">
+    <row r="77" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="46" t="s">
         <v>137</v>
       </c>
@@ -11862,7 +11882,7 @@
       <c r="BS77" s="56"/>
       <c r="BT77" s="58"/>
     </row>
-    <row r="78" spans="2:72" ht="15.75" customHeight="1">
+    <row r="78" spans="2:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="46" t="s">
         <v>139</v>
       </c>
@@ -11960,7 +11980,7 @@
       <c r="BS78" s="56"/>
       <c r="BT78" s="58"/>
     </row>
-    <row r="79" spans="2:72" ht="15.6" customHeight="1">
+    <row r="79" spans="2:72" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="46" t="s">
         <v>141</v>
       </c>
@@ -12058,7 +12078,7 @@
       <c r="BS79" s="56"/>
       <c r="BT79" s="58"/>
     </row>
-    <row r="80" spans="2:72" ht="15.6" customHeight="1">
+    <row r="80" spans="2:72" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="46" t="s">
         <v>143</v>
       </c>
@@ -12151,7 +12171,7 @@
       <c r="BS80" s="127"/>
       <c r="BT80" s="129"/>
     </row>
-    <row r="81" spans="2:74" ht="15.6" customHeight="1">
+    <row r="81" spans="2:74" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="46" t="s">
         <v>145</v>
       </c>
@@ -12249,7 +12269,7 @@
       <c r="BS81" s="56"/>
       <c r="BT81" s="58"/>
     </row>
-    <row r="82" spans="2:74" ht="15.6" customHeight="1">
+    <row r="82" spans="2:74" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="46" t="s">
         <v>147</v>
       </c>
@@ -12347,7 +12367,7 @@
       <c r="BS82" s="56"/>
       <c r="BT82" s="58"/>
     </row>
-    <row r="83" spans="2:74" ht="15.75" customHeight="1">
+    <row r="83" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="46" t="s">
         <v>149</v>
       </c>
@@ -12440,7 +12460,7 @@
       <c r="BS83" s="127"/>
       <c r="BT83" s="129"/>
     </row>
-    <row r="84" spans="2:74" ht="15.75" customHeight="1">
+    <row r="84" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="46" t="s">
         <v>151</v>
       </c>
@@ -12538,7 +12558,7 @@
       <c r="BS84" s="56"/>
       <c r="BT84" s="58"/>
     </row>
-    <row r="85" spans="2:74" ht="15.6" customHeight="1">
+    <row r="85" spans="2:74" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="46" t="s">
         <v>153</v>
       </c>
@@ -12636,7 +12656,7 @@
       <c r="BS85" s="56"/>
       <c r="BT85" s="58"/>
     </row>
-    <row r="86" spans="2:74" ht="18" customHeight="1">
+    <row r="86" spans="2:74" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E86" s="67" t="s">
         <v>28</v>
       </c>
@@ -12653,7 +12673,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="2:74" ht="18" customHeight="1">
+    <row r="87" spans="2:74" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="3" t="s">
         <v>157</v>
       </c>
@@ -12866,7 +12886,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="2:74" ht="18" customHeight="1">
+    <row r="88" spans="2:74" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H88" s="72" t="s">
         <v>160</v>
       </c>
@@ -13115,7 +13135,7 @@
       </c>
       <c r="BV88" s="69"/>
     </row>
-    <row r="89" spans="2:74" ht="18" customHeight="1">
+    <row r="89" spans="2:74" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L89" s="70" t="s">
         <v>28</v>
       </c>
@@ -13364,7 +13384,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="90" spans="2:74" ht="15.75" customHeight="1">
+    <row r="90" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K90" s="75" t="s">
         <v>162</v>
       </c>
@@ -13546,7 +13566,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="2:74" ht="15.75" customHeight="1">
+    <row r="91" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L91" s="70" t="s">
         <v>164</v>
       </c>
@@ -13795,1024 +13815,1031 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="92" spans="2:74" ht="381.75" customHeight="1"/>
-    <row r="93" spans="2:74" ht="223.5" customHeight="1"/>
-    <row r="94" spans="2:74" ht="15.75" customHeight="1"/>
-    <row r="95" spans="2:74" ht="36" customHeight="1">
-      <c r="E95" s="172" t="s">
+    <row r="92" spans="2:74" ht="381.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="2:74" ht="223.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="2:74" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E95" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="F95" s="186"/>
-      <c r="G95" s="186"/>
-      <c r="H95" s="186"/>
-      <c r="I95" s="186"/>
-      <c r="J95" s="186"/>
-      <c r="K95" s="186"/>
-      <c r="L95" s="186"/>
-      <c r="M95" s="186"/>
-      <c r="N95" s="186"/>
-      <c r="O95" s="186"/>
-      <c r="P95" s="186"/>
-      <c r="Q95" s="186"/>
-      <c r="R95" s="186"/>
-      <c r="S95" s="186"/>
-      <c r="T95" s="186"/>
-      <c r="U95" s="186"/>
-      <c r="V95" s="186"/>
-      <c r="W95" s="186"/>
-      <c r="X95" s="186"/>
-      <c r="Y95" s="186"/>
-      <c r="Z95" s="186"/>
-      <c r="AA95" s="186"/>
-      <c r="AB95" s="186"/>
-      <c r="AC95" s="186"/>
-      <c r="AD95" s="186"/>
-      <c r="AE95" s="186"/>
-      <c r="AF95" s="186"/>
-      <c r="AG95" s="186"/>
-      <c r="AH95" s="186"/>
-      <c r="AI95" s="186"/>
-      <c r="AJ95" s="186"/>
-      <c r="AK95" s="186"/>
-      <c r="AL95" s="186"/>
-      <c r="AM95" s="186"/>
-      <c r="AN95" s="186"/>
-      <c r="AO95" s="186"/>
-      <c r="AP95" s="186"/>
-      <c r="AQ95" s="186"/>
-      <c r="AR95" s="186"/>
-      <c r="AS95" s="186"/>
-      <c r="AT95" s="186"/>
-      <c r="AU95" s="186"/>
-      <c r="AV95" s="186"/>
-      <c r="AW95" s="186"/>
-      <c r="AX95" s="186"/>
-      <c r="AY95" s="186"/>
-      <c r="AZ95" s="186"/>
-      <c r="BA95" s="186"/>
-      <c r="BB95" s="186"/>
+      <c r="F95" s="155"/>
+      <c r="G95" s="155"/>
+      <c r="H95" s="155"/>
+      <c r="I95" s="155"/>
+      <c r="J95" s="155"/>
+      <c r="K95" s="155"/>
+      <c r="L95" s="155"/>
+      <c r="M95" s="155"/>
+      <c r="N95" s="155"/>
+      <c r="O95" s="155"/>
+      <c r="P95" s="155"/>
+      <c r="Q95" s="155"/>
+      <c r="R95" s="155"/>
+      <c r="S95" s="155"/>
+      <c r="T95" s="155"/>
+      <c r="U95" s="155"/>
+      <c r="V95" s="155"/>
+      <c r="W95" s="155"/>
+      <c r="X95" s="155"/>
+      <c r="Y95" s="155"/>
+      <c r="Z95" s="155"/>
+      <c r="AA95" s="155"/>
+      <c r="AB95" s="155"/>
+      <c r="AC95" s="155"/>
+      <c r="AD95" s="155"/>
+      <c r="AE95" s="155"/>
+      <c r="AF95" s="155"/>
+      <c r="AG95" s="155"/>
+      <c r="AH95" s="155"/>
+      <c r="AI95" s="155"/>
+      <c r="AJ95" s="155"/>
+      <c r="AK95" s="155"/>
+      <c r="AL95" s="155"/>
+      <c r="AM95" s="155"/>
+      <c r="AN95" s="155"/>
+      <c r="AO95" s="155"/>
+      <c r="AP95" s="155"/>
+      <c r="AQ95" s="155"/>
+      <c r="AR95" s="155"/>
+      <c r="AS95" s="155"/>
+      <c r="AT95" s="155"/>
+      <c r="AU95" s="155"/>
+      <c r="AV95" s="155"/>
+      <c r="AW95" s="155"/>
+      <c r="AX95" s="155"/>
+      <c r="AY95" s="155"/>
+      <c r="AZ95" s="155"/>
+      <c r="BA95" s="155"/>
+      <c r="BB95" s="155"/>
     </row>
-    <row r="96" spans="2:74" ht="15.75" customHeight="1"/>
-    <row r="97" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="98" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="99" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="100" spans="3:4" ht="18.75" customHeight="1">
+    <row r="96" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
     </row>
-    <row r="101" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="102" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="103" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="104" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="105" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="106" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="107" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="108" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="109" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="110" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="111" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="112" spans="3:4" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
-    <row r="1013" ht="15.75" customHeight="1"/>
-    <row r="1014" ht="15.75" customHeight="1"/>
-    <row r="1015" ht="15.75" customHeight="1"/>
-    <row r="1016" ht="15.75" customHeight="1"/>
-    <row r="1017" ht="15.75" customHeight="1"/>
-    <row r="1018" ht="15.75" customHeight="1"/>
-    <row r="1019" ht="15.75" customHeight="1"/>
-    <row r="1020" ht="15.75" customHeight="1"/>
-    <row r="1021" ht="15.75" customHeight="1"/>
-    <row r="1022" ht="15.75" customHeight="1"/>
-    <row r="1023" ht="15.75" customHeight="1"/>
-    <row r="1024" ht="15.75" customHeight="1"/>
-    <row r="1025" ht="15.75" customHeight="1"/>
-    <row r="1026" ht="15.75" customHeight="1"/>
-    <row r="1027" ht="15.75" customHeight="1"/>
-    <row r="1028" ht="15.75" customHeight="1"/>
-    <row r="1029" ht="15.75" customHeight="1"/>
-    <row r="1030" ht="15.75" customHeight="1"/>
-    <row r="1031" ht="15.75" customHeight="1"/>
-    <row r="1032" ht="15.75" customHeight="1"/>
-    <row r="1033" ht="15.75" customHeight="1"/>
-    <row r="1034" ht="15.75" customHeight="1"/>
-    <row r="1035" ht="15.75" customHeight="1"/>
-    <row r="1036" ht="15.75" customHeight="1"/>
-    <row r="1037" ht="15.75" customHeight="1"/>
-    <row r="1038" ht="15.75" customHeight="1"/>
-    <row r="1039" ht="15.75" customHeight="1"/>
-    <row r="1040" ht="15.75" customHeight="1"/>
-    <row r="1041" ht="15.75" customHeight="1"/>
-    <row r="1042" ht="15.75" customHeight="1"/>
-    <row r="1043" ht="15.75" customHeight="1"/>
-    <row r="1044" ht="15.75" customHeight="1"/>
-    <row r="1045" ht="15.75" customHeight="1"/>
-    <row r="1046" ht="15.75" customHeight="1"/>
-    <row r="1047" ht="15.75" customHeight="1"/>
-    <row r="1048" ht="15.75" customHeight="1"/>
-    <row r="1049" ht="15.75" customHeight="1"/>
-    <row r="1050" ht="15.75" customHeight="1"/>
-    <row r="1051" ht="15.75" customHeight="1"/>
+    <row r="101" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1034" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1035" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1036" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1037" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1038" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1039" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1040" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1041" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1042" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1043" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1044" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1045" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1046" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1047" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1049" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1050" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1051" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E95:BB95"/>
     <mergeCell ref="BF7:BJ7"/>
     <mergeCell ref="BK7:BO7"/>
@@ -14829,13 +14856,6 @@
     <mergeCell ref="AQ7:AU7"/>
     <mergeCell ref="AV7:AZ7"/>
     <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14855,26 +14875,26 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="72" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="39.125" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="39.1640625" customWidth="1"/>
     <col min="11" max="11" width="3" customWidth="1"/>
-    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
-    <col min="15" max="26" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="36" customHeight="1">
+    <row r="1" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14888,7 +14908,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="2:14" ht="36" customHeight="1">
+    <row r="2" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>166</v>
       </c>
@@ -14902,7 +14922,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="2:14" ht="36" customHeight="1">
+    <row r="3" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="81" t="s">
         <v>167</v>
       </c>
@@ -14937,7 +14957,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="18" customHeight="1">
+    <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
         <v>174</v>
       </c>
@@ -14970,7 +14990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="18" customHeight="1">
+    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
         <v>174</v>
       </c>
@@ -15003,7 +15023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1">
+    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
         <v>174</v>
       </c>
@@ -15036,7 +15056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1">
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
         <v>174</v>
       </c>
@@ -15066,7 +15086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1">
+    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="113" t="s">
         <v>31</v>
       </c>
@@ -15096,7 +15116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1">
+    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="113" t="s">
         <v>174</v>
       </c>
@@ -15126,7 +15146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1">
+    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="113" t="s">
         <v>174</v>
       </c>
@@ -15156,7 +15176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1">
+    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="113" t="s">
         <v>174</v>
       </c>
@@ -15186,7 +15206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1">
+    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="113" t="s">
         <v>174</v>
       </c>
@@ -15213,7 +15233,7 @@
       </c>
       <c r="J12" s="91"/>
     </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1">
+    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
         <v>174</v>
       </c>
@@ -15240,7 +15260,7 @@
       </c>
       <c r="J13" s="91"/>
     </row>
-    <row r="14" spans="2:14" ht="18" customHeight="1">
+    <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
         <v>174</v>
       </c>
@@ -15267,7 +15287,7 @@
       </c>
       <c r="J14" s="91"/>
     </row>
-    <row r="15" spans="2:14" ht="15.75" customHeight="1">
+    <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
         <v>174</v>
       </c>
@@ -15294,7 +15314,7 @@
       </c>
       <c r="J15" s="91"/>
     </row>
-    <row r="16" spans="2:14" ht="15.75" customHeight="1">
+    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="113" t="s">
         <v>174</v>
       </c>
@@ -15321,7 +15341,7 @@
       </c>
       <c r="J16" s="91"/>
     </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1">
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>199</v>
       </c>
@@ -15348,7 +15368,7 @@
       </c>
       <c r="J17" s="91"/>
     </row>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1">
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>174</v>
       </c>
@@ -15375,7 +15395,7 @@
       </c>
       <c r="J18" s="91"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1">
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>174</v>
       </c>
@@ -15402,7 +15422,7 @@
       </c>
       <c r="J19" s="91"/>
     </row>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1">
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="86" t="s">
         <v>174</v>
       </c>
@@ -15429,7 +15449,7 @@
       </c>
       <c r="J20" s="91"/>
     </row>
-    <row r="21" spans="2:10" ht="15.75" customHeight="1">
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="86" t="s">
         <v>174</v>
       </c>
@@ -15456,7 +15476,7 @@
       </c>
       <c r="J21" s="91"/>
     </row>
-    <row r="22" spans="2:10" ht="15.75" customHeight="1">
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="86" t="s">
         <v>31</v>
       </c>
@@ -15483,7 +15503,7 @@
       </c>
       <c r="J22" s="91"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1">
+    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="86" t="s">
         <v>31</v>
       </c>
@@ -15510,7 +15530,7 @@
       </c>
       <c r="J23" s="91"/>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1">
+    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="86" t="s">
         <v>31</v>
       </c>
@@ -15537,7 +15557,7 @@
       </c>
       <c r="J24" s="91"/>
     </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1">
+    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="86" t="s">
         <v>174</v>
       </c>
@@ -15564,7 +15584,7 @@
       </c>
       <c r="J25" s="91"/>
     </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1">
+    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="86" t="s">
         <v>199</v>
       </c>
@@ -15591,7 +15611,7 @@
       </c>
       <c r="J26" s="91"/>
     </row>
-    <row r="27" spans="2:10" ht="18" customHeight="1">
+    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="86" t="s">
         <v>199</v>
       </c>
@@ -15618,7 +15638,7 @@
       </c>
       <c r="J27" s="91"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1">
+    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="86" t="s">
         <v>199</v>
       </c>
@@ -15645,7 +15665,7 @@
       </c>
       <c r="J28" s="91"/>
     </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1">
+    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="86"/>
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
@@ -15656,7 +15676,7 @@
       <c r="I29" s="90"/>
       <c r="J29" s="91"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1">
+    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="86"/>
       <c r="C30" s="87"/>
       <c r="D30" s="87"/>
@@ -15666,7 +15686,7 @@
       <c r="I30" s="90"/>
       <c r="J30" s="91"/>
     </row>
-    <row r="31" spans="2:10" ht="15.75" customHeight="1">
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="86"/>
       <c r="C31" s="87"/>
       <c r="D31" s="87"/>
@@ -15677,7 +15697,7 @@
       <c r="I31" s="90"/>
       <c r="J31" s="91"/>
     </row>
-    <row r="32" spans="2:10" ht="15.75" customHeight="1">
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="86"/>
       <c r="C32" s="87"/>
       <c r="D32" s="87"/>
@@ -15688,7 +15708,7 @@
       <c r="I32" s="90"/>
       <c r="J32" s="91"/>
     </row>
-    <row r="33" spans="2:10" ht="15.75" customHeight="1">
+    <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="86"/>
       <c r="C33" s="87"/>
       <c r="D33" s="87"/>
@@ -15699,7 +15719,7 @@
       <c r="I33" s="90"/>
       <c r="J33" s="91"/>
     </row>
-    <row r="34" spans="2:10" ht="15.75" customHeight="1">
+    <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="86"/>
       <c r="C34" s="87"/>
       <c r="D34" s="87"/>
@@ -15710,7 +15730,7 @@
       <c r="I34" s="90"/>
       <c r="J34" s="91"/>
     </row>
-    <row r="35" spans="2:10" ht="15.75" customHeight="1">
+    <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="86"/>
       <c r="C35" s="87"/>
       <c r="D35" s="87"/>
@@ -15721,7 +15741,7 @@
       <c r="I35" s="90"/>
       <c r="J35" s="91"/>
     </row>
-    <row r="36" spans="2:10" ht="15.75" customHeight="1">
+    <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="86"/>
       <c r="C36" s="87"/>
       <c r="D36" s="87"/>
@@ -15732,7 +15752,7 @@
       <c r="I36" s="90"/>
       <c r="J36" s="91"/>
     </row>
-    <row r="37" spans="2:10" ht="15.75" customHeight="1">
+    <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="86"/>
       <c r="C37" s="87"/>
       <c r="D37" s="87"/>
@@ -15743,7 +15763,7 @@
       <c r="I37" s="90"/>
       <c r="J37" s="91"/>
     </row>
-    <row r="38" spans="2:10" ht="15.75" customHeight="1">
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="86"/>
       <c r="C38" s="87"/>
       <c r="D38" s="87"/>
@@ -15754,7 +15774,7 @@
       <c r="I38" s="90"/>
       <c r="J38" s="91"/>
     </row>
-    <row r="39" spans="2:10" ht="15.75" customHeight="1">
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="86"/>
       <c r="C39" s="87"/>
       <c r="D39" s="87"/>
@@ -15765,7 +15785,7 @@
       <c r="I39" s="90"/>
       <c r="J39" s="91"/>
     </row>
-    <row r="40" spans="2:10" ht="16.5" customHeight="1">
+    <row r="40" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="98"/>
       <c r="C40" s="99"/>
       <c r="D40" s="99"/>
@@ -15776,966 +15796,966 @@
       <c r="I40" s="101"/>
       <c r="J40" s="102"/>
     </row>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="42" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="43" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="44" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="45" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="46" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="47" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="48" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="H4:H40">
     <cfRule type="colorScale" priority="11">
@@ -16830,18 +16850,18 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="72" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="10.625" customWidth="1"/>
+    <col min="7" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="36" customHeight="1">
+    <row r="1" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16850,7 +16870,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="2:6" ht="36" customHeight="1">
+    <row r="2" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>225</v>
       </c>
@@ -16859,7 +16879,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" ht="36" customHeight="1">
+    <row r="3" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="103" t="s">
         <v>8</v>
       </c>
@@ -16873,7 +16893,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18" customHeight="1">
+    <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
         <v>36</v>
       </c>
@@ -16887,7 +16907,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18" customHeight="1">
+    <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="108" t="s">
         <v>180</v>
       </c>
@@ -16901,7 +16921,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18" customHeight="1">
+    <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="108" t="s">
         <v>42</v>
       </c>
@@ -16915,7 +16935,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="18" customHeight="1">
+    <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="108" t="s">
         <v>45</v>
       </c>
@@ -16929,7 +16949,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18" customHeight="1">
+    <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="108" t="s">
         <v>185</v>
       </c>
@@ -16943,7 +16963,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="18" customHeight="1">
+    <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="108" t="s">
         <v>188</v>
       </c>
@@ -16957,7 +16977,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1">
+    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="108" t="s">
         <v>52</v>
       </c>
@@ -16971,7 +16991,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1">
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="108" t="s">
         <v>191</v>
       </c>
@@ -16985,7 +17005,7 @@
         <v>45481</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18" customHeight="1">
+    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="108" t="s">
         <v>60</v>
       </c>
@@ -16999,7 +17019,7 @@
         <v>45481</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18" customHeight="1">
+    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="109" t="s">
         <v>194</v>
       </c>
@@ -17013,7 +17033,7 @@
         <v>45481</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18" customHeight="1">
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="109" t="s">
         <v>77</v>
       </c>
@@ -17027,7 +17047,7 @@
         <v>45481</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="109" t="s">
         <v>83</v>
       </c>
@@ -17041,7 +17061,7 @@
         <v>45481</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1">
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="109" t="s">
         <v>91</v>
       </c>
@@ -17055,7 +17075,7 @@
         <v>45481</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15.75" customHeight="1">
+    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="109" t="s">
         <v>97</v>
       </c>
@@ -17069,7 +17089,7 @@
         <v>45481</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" customHeight="1">
+    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="109" t="s">
         <v>202</v>
       </c>
@@ -17083,7 +17103,7 @@
         <v>45496</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15.75" customHeight="1">
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="111" t="s">
         <v>205</v>
       </c>
@@ -17097,7 +17117,7 @@
         <v>45496</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.75" customHeight="1">
+    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="111" t="s">
         <v>207</v>
       </c>
@@ -17111,7 +17131,7 @@
         <v>45496</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15.75" customHeight="1">
+    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="111" t="s">
         <v>209</v>
       </c>
@@ -17125,7 +17145,7 @@
         <v>45496</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15.75" customHeight="1">
+    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="111" t="s">
         <v>212</v>
       </c>
@@ -17139,7 +17159,7 @@
         <v>45502</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" customHeight="1">
+    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="111" t="s">
         <v>136</v>
       </c>
@@ -17153,7 +17173,7 @@
         <v>45502</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" customHeight="1">
+    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="111" t="s">
         <v>144</v>
       </c>
@@ -17167,7 +17187,7 @@
         <v>45502</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" customHeight="1">
+    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="111" t="s">
         <v>216</v>
       </c>
@@ -17181,7 +17201,7 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18" customHeight="1">
+    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="111" t="s">
         <v>219</v>
       </c>
@@ -17195,7 +17215,7 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" customHeight="1">
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="111" t="s">
         <v>221</v>
       </c>
@@ -17209,7 +17229,7 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18" customHeight="1">
+    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="111" t="s">
         <v>223</v>
       </c>
@@ -17223,1038 +17243,1038 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18" customHeight="1">
+    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="87"/>
       <c r="C29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="90"/>
     </row>
-    <row r="30" spans="2:5" ht="18" customHeight="1">
+    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="87"/>
       <c r="C30" s="87"/>
       <c r="D30" s="88"/>
       <c r="E30" s="90"/>
     </row>
-    <row r="31" spans="2:5" ht="15.75" customHeight="1">
+    <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="87"/>
       <c r="C31" s="87"/>
       <c r="D31" s="88"/>
       <c r="E31" s="90"/>
     </row>
-    <row r="32" spans="2:5" ht="15.75" customHeight="1">
+    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="87"/>
       <c r="C32" s="87"/>
       <c r="D32" s="88"/>
       <c r="E32" s="90"/>
     </row>
-    <row r="33" spans="2:5" ht="15.75" customHeight="1">
+    <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="87"/>
       <c r="C33" s="87"/>
       <c r="D33" s="88"/>
       <c r="E33" s="90"/>
     </row>
-    <row r="34" spans="2:5" ht="15.75" customHeight="1">
+    <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="87"/>
       <c r="C34" s="87"/>
       <c r="D34" s="88"/>
       <c r="E34" s="90"/>
     </row>
-    <row r="35" spans="2:5" ht="15.75" customHeight="1">
+    <row r="35" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="87"/>
       <c r="C35" s="87"/>
       <c r="D35" s="88"/>
       <c r="E35" s="90"/>
     </row>
-    <row r="36" spans="2:5" ht="15.75" customHeight="1">
+    <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="87"/>
       <c r="C36" s="87"/>
       <c r="D36" s="88"/>
       <c r="E36" s="90"/>
     </row>
-    <row r="37" spans="2:5" ht="15.75" customHeight="1">
+    <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="87"/>
       <c r="C37" s="87"/>
       <c r="D37" s="88"/>
       <c r="E37" s="90"/>
     </row>
-    <row r="38" spans="2:5" ht="15.75" customHeight="1">
+    <row r="38" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="87"/>
       <c r="C38" s="87"/>
       <c r="D38" s="88"/>
       <c r="E38" s="90"/>
     </row>
-    <row r="39" spans="2:5" ht="15.75" customHeight="1">
+    <row r="39" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="87"/>
       <c r="C39" s="87"/>
       <c r="D39" s="88"/>
       <c r="E39" s="90"/>
     </row>
-    <row r="40" spans="2:5" ht="16.5" customHeight="1">
+    <row r="40" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="99"/>
       <c r="C40" s="99"/>
       <c r="D40" s="100"/>
       <c r="E40" s="101"/>
     </row>
-    <row r="41" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="42" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="43" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="44" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="45" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="46" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="47" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="48" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="41" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
